--- a/averages-questions-arm-study-data.xlsx
+++ b/averages-questions-arm-study-data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:D10"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,48 +422,516 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1_Competency</t>
+        </is>
+      </c>
       <c r="B2" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="C2" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1_Discomfort</t>
+        </is>
+      </c>
       <c r="B3" t="n">
         <v>6.833333333333333</v>
       </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1_Safety</t>
+        </is>
+      </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.333333333333333</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2_Competency</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.666666666666667</v>
+      </c>
       <c r="C5" t="n">
         <v>5.166666666666667</v>
       </c>
+      <c r="D5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2_Discomfort</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.833333333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2_Safety</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.333333333333333</v>
+      </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3_Competency</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.166666666666667</v>
+      </c>
       <c r="D8" t="n">
         <v>1.5</v>
       </c>
+      <c r="E8" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3_Discomfort</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
       <c r="D9" t="n">
         <v>7.166666666666667</v>
       </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3_Safety</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
       <c r="D10" t="n">
         <v>3.666666666666667</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4_Competency</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4_Discomfort</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4_Safety</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>5_Competency</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5_Discomfort</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5_Safety</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6_Competency</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6_Discomfort</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6_Safety</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>7_Competency</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>7_Discomfort</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7_Safety</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8_Competency</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>8_Discomfort</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8_Safety</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.333333333333333</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>9_Competency</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>9_Discomfort</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.833333333333333</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>9_Safety</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.333333333333333</v>
       </c>
     </row>
   </sheetData>
